--- a/data/trans_bre/P10_1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P10_1_R-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 7,15</t>
+          <t>-3,79; 7,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 16,93</t>
+          <t>2,6; 16,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 3,42</t>
+          <t>-1,62; 3,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 99,24</t>
+          <t>-30,6; 101,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,41; 135,08</t>
+          <t>12,7; 123,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-43,05; 239,02</t>
+          <t>-46,5; 260,0</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 10,68</t>
+          <t>3,01; 11,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 11,54</t>
+          <t>3,19; 11,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 9,56</t>
+          <t>3,4; 9,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 6,79</t>
+          <t>-0,76; 6,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,38; 162,48</t>
+          <t>31,11; 173,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,76; 200,34</t>
+          <t>30,48; 200,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>77,91; 523,63</t>
+          <t>76,66; 511,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 112,03</t>
+          <t>-8,2; 113,26</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,93</t>
+          <t>-1,41; 3,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 10,15</t>
+          <t>1,12; 9,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 6,64</t>
+          <t>0,71; 6,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 6,48</t>
+          <t>-0,18; 6,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-48,9; 307,85</t>
+          <t>-46,83; 344,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,12; 294,93</t>
+          <t>10,02; 269,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 637,43</t>
+          <t>11,95; 617,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 191,03</t>
+          <t>-4,53; 180,92</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 8,59</t>
+          <t>2,07; 8,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 17,74</t>
+          <t>10,11; 17,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 17,18</t>
+          <t>6,25; 16,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 9,21</t>
+          <t>0,23; 9,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,11; 579,69</t>
+          <t>45,15; 604,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>108,88; 288,57</t>
+          <t>100,61; 291,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>55,37; 243,48</t>
+          <t>50,53; 226,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,98; 233,56</t>
+          <t>-1,66; 212,65</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 5,9</t>
+          <t>-3,92; 5,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,28; 19,87</t>
+          <t>7,34; 19,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 7,17</t>
+          <t>-1,38; 8,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 10,08</t>
+          <t>3,06; 10,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-49,49; 135,91</t>
+          <t>-47,75; 136,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>99,5; 716,4</t>
+          <t>87,42; 708,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 246,18</t>
+          <t>-25,03; 294,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>59,55; 551,78</t>
+          <t>57,32; 606,04</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 6,21</t>
+          <t>0,44; 6,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 7,87</t>
+          <t>-1,53; 8,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,96; 12,5</t>
+          <t>1,06; 11,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 6,56</t>
+          <t>-0,75; 6,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,13; 1494,41</t>
+          <t>-1,11; 1325,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 136,39</t>
+          <t>-16,28; 156,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,37; 247,69</t>
+          <t>9,65; 233,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 163,1</t>
+          <t>-12,47; 140,47</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,0; 7,88</t>
+          <t>1,68; 7,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,07</t>
+          <t>0,29; 6,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,24; 9,83</t>
+          <t>2,79; 9,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 8,01</t>
+          <t>-2,08; 8,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,41; 182,36</t>
+          <t>20,2; 175,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,02; 160,35</t>
+          <t>1,12; 165,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>37,45; 193,6</t>
+          <t>32,98; 198,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 105,94</t>
+          <t>-16,1; 107,8</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 4,73</t>
+          <t>-1,52; 4,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,08; 10,92</t>
+          <t>3,48; 10,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,55</t>
+          <t>1,61; 6,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,85; 13,93</t>
+          <t>7,74; 13,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 71,55</t>
+          <t>-15,92; 63,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>37,57; 147,87</t>
+          <t>32,4; 141,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,6; 206,18</t>
+          <t>30,01; 212,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>110,25; 318,48</t>
+          <t>115,37; 306,55</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,7</t>
+          <t>2,13; 4,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,11; 8,98</t>
+          <t>5,9; 9,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,64; 7,54</t>
+          <t>4,61; 7,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,8; 6,82</t>
+          <t>3,86; 6,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>31,78; 87,28</t>
+          <t>31,47; 85,5</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>78,56; 141,47</t>
+          <t>74,76; 139,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>69,69; 139,29</t>
+          <t>69,08; 136,57</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>55,22; 122,55</t>
+          <t>55,26; 121,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P10_1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P10_1_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 7,35</t>
+          <t>-3,51; 7,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,6; 16,06</t>
+          <t>2,12; 16,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-30,6; 101,16</t>
+          <t>-26,96; 94,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,7; 123,79</t>
+          <t>10,91; 123,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 11,27</t>
+          <t>2,77; 10,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 11,71</t>
+          <t>2,35; 11,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 9,5</t>
+          <t>3,48; 9,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,11; 173,79</t>
+          <t>23,37; 162,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,48; 200,54</t>
+          <t>21,08; 187,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>76,66; 511,09</t>
+          <t>78,48; 499,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,92</t>
+          <t>-1,51; 4,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 9,73</t>
+          <t>1,7; 10,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,77</t>
+          <t>0,56; 7,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-46,83; 344,6</t>
+          <t>-49,51; 332,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,02; 269,36</t>
+          <t>24,24; 305,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,95; 617,61</t>
+          <t>7,0; 698,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 8,63</t>
+          <t>1,93; 8,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,11; 17,73</t>
+          <t>10,19; 17,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 16,6</t>
+          <t>6,53; 17,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,15; 604,13</t>
+          <t>33,7; 541,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>100,61; 291,71</t>
+          <t>104,3; 279,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,53; 226,07</t>
+          <t>51,71; 252,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 5,62</t>
+          <t>-4,65; 5,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,34; 19,83</t>
+          <t>7,45; 19,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 8,0</t>
+          <t>-1,56; 7,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,75; 136,72</t>
+          <t>-51,98; 129,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,42; 708,98</t>
+          <t>88,1; 677,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-25,03; 294,96</t>
+          <t>-30,37; 279,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 6,28</t>
+          <t>0,52; 6,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 8,16</t>
+          <t>-2,52; 7,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 11,78</t>
+          <t>1,19; 12,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 1325,99</t>
+          <t>-13,59; 1563,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 156,47</t>
+          <t>-22,77; 136,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,65; 233,55</t>
+          <t>8,98; 235,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,68; 7,81</t>
+          <t>1,73; 7,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 6,06</t>
+          <t>0,53; 5,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,79; 9,95</t>
+          <t>2,86; 9,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,2; 175,67</t>
+          <t>21,47; 177,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 165,41</t>
+          <t>6,52; 148,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>32,98; 198,6</t>
+          <t>35,94; 191,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 4,38</t>
+          <t>-1,33; 4,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,48; 10,48</t>
+          <t>3,76; 10,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,61; 6,42</t>
+          <t>1,59; 6,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 63,86</t>
+          <t>-14,54; 62,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>32,4; 141,43</t>
+          <t>32,98; 146,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>30,01; 212,2</t>
+          <t>25,59; 201,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,68</t>
+          <t>2,09; 4,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,9; 9,05</t>
+          <t>5,97; 9,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,61; 7,44</t>
+          <t>4,64; 7,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>31,47; 85,5</t>
+          <t>31,65; 83,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>74,76; 139,78</t>
+          <t>76,52; 141,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>69,08; 136,57</t>
+          <t>68,74; 137,7</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
